--- a/HyC.Inc.2024報表實作.xlsx
+++ b/HyC.Inc.2024報表實作.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrychen/Downloads/excel-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA6FB83-3ABC-433E-B64E-F61029AE72E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700CAFC8-1232-AF40-A217-6A102B3D3793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{0880D8BF-3122-499A-90B8-1CC03F7AB33E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13540" activeTab="3" xr2:uid="{0880D8BF-3122-499A-90B8-1CC03F7AB33E}"/>
   </bookViews>
   <sheets>
     <sheet name="員工基本資料,業績資料" sheetId="1" r:id="rId1"/>
     <sheet name="業績獎金對照表" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -719,7 +731,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="131">
   <si>
     <t>總部</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -998,19 +1010,230 @@
     <t>B</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>林志明</t>
+  </si>
+  <si>
+    <t>張雅婷</t>
+  </si>
+  <si>
+    <t>李宗翰</t>
+  </si>
+  <si>
+    <t>王淑芬</t>
+  </si>
+  <si>
+    <t>黃俊傑</t>
+  </si>
+  <si>
+    <t>吳佩珊</t>
+  </si>
+  <si>
+    <t>劉家豪</t>
+  </si>
+  <si>
+    <t>蔡依林</t>
+  </si>
+  <si>
+    <t>許文彬</t>
+  </si>
+  <si>
+    <t>鄭美玲</t>
+  </si>
+  <si>
+    <t>謝志豪</t>
+  </si>
+  <si>
+    <t>洪嘉欣</t>
+  </si>
+  <si>
+    <t>郭俊宏</t>
+  </si>
+  <si>
+    <t>邱雅雯</t>
+  </si>
+  <si>
+    <t>陳建宏</t>
+  </si>
+  <si>
+    <t>林佳慧</t>
+  </si>
+  <si>
+    <t>張志強</t>
+  </si>
+  <si>
+    <t>李佩玲</t>
+  </si>
+  <si>
+    <t>王建銘</t>
+  </si>
+  <si>
+    <t>黃雅慧</t>
+  </si>
+  <si>
+    <t>吳宗憲</t>
+  </si>
+  <si>
+    <t>劉俊宏</t>
+  </si>
+  <si>
+    <t>蔡佳玲</t>
+  </si>
+  <si>
+    <t>許志明</t>
+  </si>
+  <si>
+    <t>鄭雅婷</t>
+  </si>
+  <si>
+    <t>謝宗翰</t>
+  </si>
+  <si>
+    <t>洪佩珊</t>
+  </si>
+  <si>
+    <t>郭怡君</t>
+  </si>
+  <si>
+    <t>邱俊傑</t>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>學過</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅長</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Py,Ts</t>
+  </si>
+  <si>
+    <t>Js,Java</t>
+  </si>
+  <si>
+    <t>SQL,C++</t>
+  </si>
+  <si>
+    <t>Py,Java</t>
+  </si>
+  <si>
+    <t>Ts,SQL</t>
+  </si>
+  <si>
+    <t>C++,Py</t>
+  </si>
+  <si>
+    <t>Java,Ts</t>
+  </si>
+  <si>
+    <t>SQL,Js</t>
+  </si>
+  <si>
+    <t>Py,Ts,Java</t>
+  </si>
+  <si>
+    <t>Ts,Js</t>
+  </si>
+  <si>
+    <t>Java,SQL</t>
+  </si>
+  <si>
+    <t>C++,Py,Ts</t>
+  </si>
+  <si>
+    <t>Js,Py</t>
+  </si>
+  <si>
+    <t>SQL,Java</t>
+  </si>
+  <si>
+    <t>Ts,C++</t>
+  </si>
+  <si>
+    <t>Py,Js</t>
+  </si>
+  <si>
+    <t>Java,Py</t>
+  </si>
+  <si>
+    <t>SQL,Ts</t>
+  </si>
+  <si>
+    <t>C++,Js</t>
+  </si>
+  <si>
+    <t>Py,SQL</t>
+  </si>
+  <si>
+    <t>Ts,Java</t>
+  </si>
+  <si>
+    <t>Js,C++</t>
+  </si>
+  <si>
+    <t>SQL,Py</t>
+  </si>
+  <si>
+    <t>Java,Ts,Py</t>
+  </si>
+  <si>
+    <t>C++,SQL</t>
+  </si>
+  <si>
+    <t>Py,Js,Ts</t>
+  </si>
+  <si>
+    <t>Ts,SQL,Java</t>
+  </si>
+  <si>
+    <t>Js,Py,SQL</t>
+  </si>
+  <si>
+    <t>Java,C++</t>
+  </si>
+  <si>
+    <t>SQL,Ts,Py</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Py</t>
+  </si>
+  <si>
+    <t>Ts</t>
+  </si>
+  <si>
+    <t>Js</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Py</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="182" formatCode="yyyy\-mm"/>
-    <numFmt numFmtId="183" formatCode="[&lt;=5]0;;"/>
-    <numFmt numFmtId="185" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
-    <numFmt numFmtId="186" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="187" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="177" formatCode="[&lt;=5]0;;"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1222,6 +1445,19 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF242424"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF242424"/>
+      <name val="PMingLiU"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1309,7 +1545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,11 +1555,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1340,28 +1573,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="14" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1379,20 +1603,26 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1422,9 +1652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1462,7 +1692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1568,7 +1798,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1710,7 +1940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1724,27 +1954,26 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" ht="26">
+      <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1775,43 +2004,43 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="24">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="F2" s="14">
+      <c r="C2" s="8"/>
+      <c r="F2">
         <v>20071029</v>
       </c>
       <c r="H2">
         <v>10000</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="24"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15" ht="16">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <f>B2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D3">
@@ -1820,17 +2049,17 @@
       <c r="E3">
         <v>334290</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>36685</v>
       </c>
       <c r="G3" s="3">
         <f ca="1">DATEDIF(F3,TODAY(),"Y")</f>
         <v>24</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>99999</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <f>_xlfn.RANK.EQ(H3,$H$3:$H$15)</f>
         <v>1</v>
       </c>
@@ -1844,7 +2073,7 @@
       </c>
       <c r="L3">
         <f ca="1">RANDBETWEEN(254,848)</f>
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="N3" t="s">
         <v>41</v>
@@ -1853,15 +2082,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:15" ht="16">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <f>B3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D4">
@@ -1870,33 +2099,33 @@
       <c r="E4">
         <v>23668541</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>38888</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4:G15" ca="1" si="0">DATEDIF(F4,TODAY(),"Y")</f>
         <v>18</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>99999</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <f t="shared" ref="I4:I15" si="1">_xlfn.RANK.EQ(H4,$H$3:$H$15)</f>
         <v>1</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4">
         <f>ROUNDDOWN(H4*VLOOKUP($H4,業績獎金對照表!$A$2:$C$6,3),0)</f>
         <v>15999</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4">
         <f>IF(H4&gt;=55555, COUNTIF($H$3:H4, "&gt;=55555"), "")</f>
         <v>2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4">
         <f t="shared" ref="L4:L15" ca="1" si="2">RANDBETWEEN(254,848)</f>
-        <v>489</v>
-      </c>
-      <c r="N4" s="16">
+        <v>508</v>
+      </c>
+      <c r="N4">
         <v>30000</v>
       </c>
       <c r="O4">
@@ -1904,51 +2133,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="F5" s="11">
+      <c r="C5" s="8"/>
+      <c r="F5" s="10">
         <v>38512</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="16">
+      <c r="H5" s="9"/>
+      <c r="I5" s="11"/>
+      <c r="J5">
         <f>ROUNDDOWN(H5*VLOOKUP($H5,業績獎金對照表!$A$2:$C$6,3),0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="16" t="str">
+      <c r="K5" t="str">
         <f>IF(H5&gt;=55555, COUNTIF($H$3:H5, "&gt;=55555"), "")</f>
         <v/>
       </c>
-      <c r="L5" s="16">
+      <c r="L5">
         <f t="shared" ca="1" si="2"/>
-        <v>762</v>
-      </c>
-      <c r="N5" s="16">
+        <v>310</v>
+      </c>
+      <c r="N5">
         <v>50000</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:15" ht="16">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <f>B5</f>
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D6">
@@ -1957,48 +2186,48 @@
       <c r="E6">
         <v>288859</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>39310</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>77777</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6">
         <f>ROUNDDOWN(H6*VLOOKUP($H6,業績獎金對照表!$A$2:$C$6,3),0)</f>
         <v>6222</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6">
         <f>IF(H6&gt;=55555, COUNTIF($H$3:H6, "&gt;=55555"), "")</f>
         <v>3</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6">
         <f t="shared" ca="1" si="2"/>
-        <v>295</v>
-      </c>
-      <c r="N6" s="16">
+        <v>703</v>
+      </c>
+      <c r="N6">
         <v>70000</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:15" ht="16">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <f t="shared" ref="B7:B15" si="3">B6</f>
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7">
@@ -2007,48 +2236,48 @@
       <c r="E7">
         <v>22925636</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>38001</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>88888</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7">
         <f>ROUNDDOWN(H7*VLOOKUP($H7,業績獎金對照表!$A$2:$C$6,3),0)</f>
         <v>7111</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7">
         <f>IF(H7&gt;=55555, COUNTIF($H$3:H7, "&gt;=55555"), "")</f>
         <v>4</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7">
         <f t="shared" ca="1" si="2"/>
-        <v>396</v>
-      </c>
-      <c r="N7" s="16">
+        <v>497</v>
+      </c>
+      <c r="N7">
         <v>90000</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:15" ht="16">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D8">
@@ -2057,85 +2286,85 @@
       <c r="E8">
         <v>341178</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>39427</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>66666</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8">
         <f>ROUNDDOWN(H8*VLOOKUP($H8,業績獎金對照表!$A$2:$C$6,3),0)</f>
         <v>2666</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8">
         <f>IF(H8&gt;=55555, COUNTIF($H$3:H8, "&gt;=55555"), "")</f>
         <v>5</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8">
         <f t="shared" ca="1" si="2"/>
-        <v>795</v>
-      </c>
-      <c r="N8" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="16">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="F9" s="11">
+      <c r="C9" s="8"/>
+      <c r="F9" s="10">
         <v>38297</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="16">
+      <c r="H9" s="9"/>
+      <c r="I9" s="11"/>
+      <c r="J9">
         <f>ROUNDDOWN(H9*VLOOKUP($H9,業績獎金對照表!$A$2:$C$6,3),0)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="16" t="str">
+      <c r="K9" t="str">
         <f>IF(H9&gt;=55555, COUNTIF($H$3:H9, "&gt;=55555"), "")</f>
         <v/>
       </c>
-      <c r="L9" s="16">
+      <c r="L9">
         <f t="shared" ca="1" si="2"/>
-        <v>455</v>
-      </c>
-      <c r="N9" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="N9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="25">
         <f>COUNTIF(H3:H15,"&gt;70000")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:15" ht="16">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D10">
@@ -2144,44 +2373,44 @@
       <c r="E10">
         <v>22712109</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>38477</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>55555</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10">
         <f>ROUNDDOWN(H10*VLOOKUP($H10,業績獎金對照表!$A$2:$C$6,3),0)</f>
         <v>2222</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10">
         <f>IF(H10&gt;=55555, COUNTIF($H$3:H10, "&gt;=55555"), "")</f>
         <v>6</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10">
         <f t="shared" ca="1" si="2"/>
-        <v>471</v>
-      </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" ht="16">
+      <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D11">
@@ -2190,42 +2419,42 @@
       <c r="E11">
         <v>23635643</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>38514</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>44444</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11">
         <f>ROUNDDOWN(H11*VLOOKUP($H11,業績獎金對照表!$A$2:$C$6,3),0)</f>
         <v>888</v>
       </c>
-      <c r="K11" s="16" t="str">
+      <c r="K11" t="str">
         <f>IF(H11&gt;=55555, COUNTIF($H$3:H11, "&gt;=55555"), "")</f>
         <v/>
       </c>
-      <c r="L11" s="16">
+      <c r="L11">
         <f t="shared" ca="1" si="2"/>
-        <v>608</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D12">
@@ -2234,72 +2463,72 @@
       <c r="E12">
         <v>23355835</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>38516</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>55555</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12">
         <f>ROUNDDOWN(H12*VLOOKUP($H12,業績獎金對照表!$A$2:$C$6,3),0)</f>
         <v>2222</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12">
         <f>IF(H12&gt;=55555, COUNTIF($H$3:H12, "&gt;=55555"), "")</f>
         <v>7</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12">
         <f t="shared" ca="1" si="2"/>
-        <v>620</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="F13" s="17">
+      <c r="C13" s="8"/>
+      <c r="F13" s="13">
         <v>38462</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="16">
+      <c r="H13" s="9"/>
+      <c r="I13" s="11"/>
+      <c r="J13">
         <f>ROUNDDOWN(H13*VLOOKUP($H13,業績獎金對照表!$A$2:$C$6,3),0)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="16" t="str">
+      <c r="K13" t="str">
         <f>IF(H13&gt;=55555, COUNTIF($H$3:H13, "&gt;=55555"), "")</f>
         <v/>
       </c>
-      <c r="L13" s="16">
+      <c r="L13">
         <f t="shared" ca="1" si="2"/>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18">
+      <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D14">
@@ -2308,42 +2537,42 @@
       <c r="E14">
         <v>23355837</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="13">
         <v>38888</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>33333</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14">
         <f>ROUNDDOWN(H14*VLOOKUP($H14,業績獎金對照表!$A$2:$C$6,3),0)</f>
         <v>666</v>
       </c>
-      <c r="K14" s="16" t="str">
+      <c r="K14" t="str">
         <f>IF(H14&gt;=55555, COUNTIF($H$3:H14, "&gt;=55555"), "")</f>
         <v/>
       </c>
-      <c r="L14" s="16">
+      <c r="L14">
         <f t="shared" ca="1" si="2"/>
-        <v>546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18">
+      <c r="A15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D15">
@@ -2352,51 +2581,51 @@
       <c r="E15">
         <v>23355838</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="13">
         <v>38512</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>22222</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15">
         <f>ROUNDDOWN(H15*VLOOKUP($H15,業績獎金對照表!$A$2:$C$6,3),0)</f>
         <v>222</v>
       </c>
-      <c r="K15" s="16" t="str">
+      <c r="K15" t="str">
         <f>IF(H15&gt;=55555, COUNTIF($H$3:H15, "&gt;=55555"), "")</f>
         <v/>
       </c>
-      <c r="L15" s="16">
+      <c r="L15">
         <f t="shared" ca="1" si="2"/>
-        <v>569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16">
+      <c r="A16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="3">
         <f ca="1">AVERAGE(G3:G15)</f>
         <v>19</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <f>SUM(H3:H15)</f>
         <v>644438</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+    <row r="17" spans="1:1" ht="16">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="16">
+      <c r="A18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2419,69 +2648,69 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="25"/>
       <c r="C1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>30000</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>30001</v>
       </c>
       <c r="B3">
         <v>50000</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>50001</v>
       </c>
       <c r="B4">
         <v>70000</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>70001</v>
       </c>
       <c r="B5">
         <v>90000</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>90001</v>
       </c>
       <c r="B6">
         <v>100000</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>0.16</v>
       </c>
     </row>
@@ -2499,13 +2728,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1972C85-5404-4FB3-96AB-DAECFF977548}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2516,7 +2745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2527,7 +2756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="str">
         <f>A2</f>
         <v>美國</v>
@@ -2540,37 +2769,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="str">
+    <row r="4" spans="1:3">
+      <c r="A4" t="str">
         <f t="shared" ref="A4:A21" si="0">A3</f>
         <v>美國</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="str">
+    <row r="5" spans="1:3">
+      <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>美國</v>
       </c>
-      <c r="B5" s="16" t="str">
-        <f t="shared" ref="B4:B21" si="1">B4</f>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B21" si="1">B4</f>
         <v>洛杉磯</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="str">
+    <row r="6" spans="1:3">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>美國</v>
       </c>
-      <c r="B6" s="16" t="str">
+      <c r="B6" t="str">
         <f t="shared" si="1"/>
         <v>洛杉磯</v>
       </c>
@@ -2578,24 +2807,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="str">
+    <row r="7" spans="1:3">
+      <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>美國</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="str">
+    <row r="8" spans="1:3">
+      <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>美國</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" t="str">
         <f t="shared" si="1"/>
         <v>華盛頓</v>
       </c>
@@ -2603,12 +2832,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="str">
+    <row r="9" spans="1:3">
+      <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>美國</v>
       </c>
-      <c r="B9" s="16" t="str">
+      <c r="B9" t="str">
         <f t="shared" si="1"/>
         <v>華盛頓</v>
       </c>
@@ -2616,23 +2845,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" t="s">
         <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="str">
+    <row r="11" spans="1:3">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>日本</v>
       </c>
-      <c r="B11" s="16" t="str">
+      <c r="B11" t="str">
         <f t="shared" si="1"/>
         <v>東京</v>
       </c>
@@ -2640,24 +2869,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="str">
+    <row r="12" spans="1:3">
+      <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>日本</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="str">
+    <row r="13" spans="1:3">
+      <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>日本</v>
       </c>
-      <c r="B13" s="16" t="str">
+      <c r="B13" t="str">
         <f t="shared" si="1"/>
         <v>新瀉</v>
       </c>
@@ -2665,12 +2894,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="str">
+    <row r="14" spans="1:3">
+      <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>日本</v>
       </c>
-      <c r="B14" s="16" t="str">
+      <c r="B14" t="str">
         <f>B13</f>
         <v>新瀉</v>
       </c>
@@ -2678,12 +2907,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="str">
+    <row r="15" spans="1:3">
+      <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>日本</v>
       </c>
-      <c r="B15" s="16" t="str">
+      <c r="B15" t="str">
         <f t="shared" si="1"/>
         <v>新瀉</v>
       </c>
@@ -2691,23 +2920,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" t="s">
         <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="str">
+    <row r="17" spans="1:3">
+      <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>中國</v>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" t="str">
         <f t="shared" si="1"/>
         <v>四川</v>
       </c>
@@ -2715,12 +2944,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="str">
+    <row r="18" spans="1:3">
+      <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>中國</v>
       </c>
-      <c r="B18" s="16" t="str">
+      <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>四川</v>
       </c>
@@ -2728,24 +2957,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="str">
+    <row r="19" spans="1:3">
+      <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>中國</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="str">
+    <row r="20" spans="1:3">
+      <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>中國</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>內蒙古</v>
       </c>
@@ -2753,17 +2982,378 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="str">
+    <row r="21" spans="1:3">
+      <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>中國</v>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>內蒙古</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE370596-22F3-6847-AF4C-20D350791DBB}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20">
+      <c r="A2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18">
+      <c r="A5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18">
+      <c r="A6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18">
+      <c r="A7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18">
+      <c r="A8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18">
+      <c r="A10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18">
+      <c r="A13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18">
+      <c r="A14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18">
+      <c r="A15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18">
+      <c r="A16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18">
+      <c r="A20" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18">
+      <c r="A21" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18">
+      <c r="A22" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18">
+      <c r="A23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18">
+      <c r="A24" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18">
+      <c r="A25" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18">
+      <c r="A26" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18">
+      <c r="A27" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18">
+      <c r="A28" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18">
+      <c r="A29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18">
+      <c r="A30" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18">
+      <c r="A31" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
